--- a/rq2_results_table_16052022.xlsx
+++ b/rq2_results_table_16052022.xlsx
@@ -1090,7 +1090,102 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1420,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R124" sqref="R124"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7284,10 +7379,10 @@
     <mergeCell ref="Q3:Q135"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G52">
-    <cfRule type="top10" dxfId="5" priority="10" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:N46">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7299,10 +7394,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O46">
-    <cfRule type="top10" dxfId="4" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="9" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:V135">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7314,15 +7409,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W135">
-    <cfRule type="top10" dxfId="3" priority="6" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="top10" dxfId="10" priority="7" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:F52">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7334,12 +7424,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:G43">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R124:W124">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:O35">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
